--- a/Data/Free Basics Launch Dates.xlsx
+++ b/Data/Free Basics Launch Dates.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretpearce/Documents/Graduate Coursework/LIS 677/Project/Raw data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretpearce/Documents/Graduate Coursework/LIS 677/Project/lis677-project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9740" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Categorizations" sheetId="3" r:id="rId1"/>
     <sheet name="Asia Pacific Launch Dates" sheetId="1" r:id="rId2"/>
     <sheet name="Metadata" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Categorizations!$A$1:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,29 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -58,9 +49,6 @@
     <t>Timor-Leste</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
     <t>Network 1</t>
   </si>
   <si>
@@ -70,36 +58,12 @@
     <t>Network 3</t>
   </si>
   <si>
-    <t>Grameenphone</t>
-  </si>
-  <si>
-    <t>Robi</t>
-  </si>
-  <si>
     <t>Smart Axiata</t>
   </si>
   <si>
     <t>Indosat</t>
   </si>
   <si>
-    <t>Ooredoo</t>
-  </si>
-  <si>
-    <t>G-Mobile</t>
-  </si>
-  <si>
-    <t>Mobicam</t>
-  </si>
-  <si>
-    <t>Skytel</t>
-  </si>
-  <si>
-    <t>Telenor</t>
-  </si>
-  <si>
-    <t>Zong</t>
-  </si>
-  <si>
     <t>Globe</t>
   </si>
   <si>
@@ -115,9 +79,6 @@
     <t>Telkomcel</t>
   </si>
   <si>
-    <t>Telecom</t>
-  </si>
-  <si>
     <t>Launch Date</t>
   </si>
   <si>
@@ -127,12 +88,6 @@
     <t>https://info.internet.org/en/story/where-weve-launched/</t>
   </si>
   <si>
-    <t>Bangladesh launch date</t>
-  </si>
-  <si>
-    <t>http://www.thedailystar.net/backpage/internetorg-be-launched-today-81422</t>
-  </si>
-  <si>
     <t>http://techcrunch.com/2015/04/20/internet-dot-org-indonesia/</t>
   </si>
   <si>
@@ -142,15 +97,6 @@
     <t>https://www.cambodiadaily.com/news/controversial-facebook-internet-service-launched-in-cambodia-97093/</t>
   </si>
   <si>
-    <t>http://www.haveeru.com.mv/business/63121</t>
-  </si>
-  <si>
-    <t>http://mongolia.gogo.mn/r/149476</t>
-  </si>
-  <si>
-    <t>http://propakistani.pk/2015/12/16/zong-launches-free-basics-internet-org-in-pakistan/</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/pulse/truemove-h-facebook-join-hands-launch-free-basics-pr-vachiradechkul</t>
   </si>
   <si>
@@ -167,9 +113,6 @@
   </si>
   <si>
     <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Iraq</t>
   </si>
   <si>
     <t>Lao PDR</t>
@@ -506,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,32 +462,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,177 +495,112 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -749,13 +627,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>42134</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -763,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>42285</v>
+        <v>42114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -774,10 +649,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>42114</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -785,10 +663,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="1">
-        <v>42292</v>
+        <v>42278</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -796,77 +677,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>42311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
-        <v>42354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>42081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1">
-        <v>42278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1">
         <v>42305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -876,28 +690,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -905,63 +719,31 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
